--- a/testExcel.xlsx
+++ b/testExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>エクセルファイルを更新するとどうなるか検証しました。</t>
     <rPh sb="9" eb="11">
@@ -30,6 +30,16 @@
   <si>
     <t>あいうえお
 テスト・テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローンに変更を加えました。</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,10 +91,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -401,36 +411,41 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/testExcel.xlsx
+++ b/testExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>エクセルファイルを更新するとどうなるか検証しました。</t>
     <rPh sb="9" eb="11">
@@ -39,6 +39,19 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newworkspaceに編集を加えました。Studyのリポジトリに変更がされているはず</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,6 +458,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
